--- a/tables/warm_latency_99.xlsx
+++ b/tables/warm_latency_99.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>runtime</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -491,29 +491,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://osyk7zimdu4tctharhnu6j7xdy0jlkkw.lambda-url.eu-north-1.on.aws/</t>
+          <t>Node.js</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10232</v>
+        <v>58729</v>
       </c>
       <c r="E2" t="n">
-        <v>36.93565710789679</v>
+        <v>37.48</v>
       </c>
       <c r="F2" t="n">
-        <v>9.212991477172691</v>
+        <v>11.19</v>
       </c>
       <c r="G2" t="n">
-        <v>26.788849</v>
+        <v>24.71</v>
       </c>
       <c r="H2" t="n">
-        <v>34.8021825</v>
+        <v>34.93</v>
       </c>
       <c r="I2" t="n">
-        <v>65.56449053000003</v>
+        <v>67.53</v>
       </c>
       <c r="J2" t="n">
-        <v>422.113642</v>
+        <v>544.77</v>
       </c>
     </row>
     <row r="3">
@@ -527,29 +527,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://pjb3ulf44csk46vtr3ovfkzp7e0lfprw.lambda-url.eu-north-1.on.aws/</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10229</v>
+        <v>58698</v>
       </c>
       <c r="E3" t="n">
-        <v>35.96163103705152</v>
+        <v>35.86</v>
       </c>
       <c r="F3" t="n">
-        <v>12.56461771064158</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>26.692056</v>
+        <v>23.81</v>
       </c>
       <c r="H3" t="n">
-        <v>34.111364</v>
+        <v>33.94</v>
       </c>
       <c r="I3" t="n">
-        <v>59.43571259999995</v>
+        <v>61.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1040.804846</v>
+        <v>1040.8</v>
       </c>
     </row>
     <row r="4">
@@ -563,29 +563,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://hellonode-coldstart.di-benedetto.workers.dev</t>
+          <t>Node.js</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9888</v>
+        <v>56696</v>
       </c>
       <c r="E4" t="n">
-        <v>19.88371736872977</v>
+        <v>19.81</v>
       </c>
       <c r="F4" t="n">
-        <v>6.274653334955792</v>
+        <v>5.84</v>
       </c>
       <c r="G4" t="n">
-        <v>14.843133</v>
+        <v>14.43</v>
       </c>
       <c r="H4" t="n">
-        <v>18.1659765</v>
+        <v>18.21</v>
       </c>
       <c r="I4" t="n">
-        <v>40.81525378999992</v>
+        <v>40.3</v>
       </c>
       <c r="J4" t="n">
-        <v>255.476098</v>
+        <v>255.48</v>
       </c>
     </row>
     <row r="5">
@@ -599,29 +599,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://hellopython-coldstart.di-benedetto.workers.dev</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9886</v>
+        <v>56577</v>
       </c>
       <c r="E5" t="n">
-        <v>21.47629162128262</v>
+        <v>21.45</v>
       </c>
       <c r="F5" t="n">
-        <v>6.062208782900754</v>
+        <v>6.1</v>
       </c>
       <c r="G5" t="n">
-        <v>15.401991</v>
+        <v>15.32</v>
       </c>
       <c r="H5" t="n">
-        <v>19.850375</v>
+        <v>19.86</v>
       </c>
       <c r="I5" t="n">
-        <v>45.56815864999992</v>
+        <v>43.46</v>
       </c>
       <c r="J5" t="n">
-        <v>145.059828</v>
+        <v>190.91</v>
       </c>
     </row>
     <row r="6">
@@ -635,29 +635,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://hellogo-coldstart.fly.dev</t>
+          <t>Golang</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9997</v>
+        <v>57408</v>
       </c>
       <c r="E6" t="n">
-        <v>43.46048413514054</v>
+        <v>151.82</v>
       </c>
       <c r="F6" t="n">
-        <v>24.58420981827164</v>
+        <v>130.37</v>
       </c>
       <c r="G6" t="n">
-        <v>37.340072</v>
+        <v>37.34</v>
       </c>
       <c r="H6" t="n">
-        <v>40.355072</v>
+        <v>191.41</v>
       </c>
       <c r="I6" t="n">
-        <v>119.1641845199993</v>
+        <v>424.88</v>
       </c>
       <c r="J6" t="n">
-        <v>494.79251</v>
+        <v>1128.18</v>
       </c>
     </row>
     <row r="7">
@@ -671,29 +671,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://hellonode-coldstart.fly.dev</t>
+          <t>Node.js</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9994</v>
+        <v>57384</v>
       </c>
       <c r="E7" t="n">
-        <v>44.70447750180108</v>
+        <v>152.44</v>
       </c>
       <c r="F7" t="n">
-        <v>26.98224186537496</v>
+        <v>131.36</v>
       </c>
       <c r="G7" t="n">
-        <v>39.799775</v>
+        <v>39.37</v>
       </c>
       <c r="H7" t="n">
-        <v>40.9123645</v>
+        <v>191.94</v>
       </c>
       <c r="I7" t="n">
-        <v>169.1648165599995</v>
+        <v>425.42</v>
       </c>
       <c r="J7" t="n">
-        <v>465.490928</v>
+        <v>5102.82</v>
       </c>
     </row>
     <row r="8">
@@ -707,29 +707,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://europe-north1-benchmark-431108.cloudfunctions.net/hellogo-coldstart</t>
+          <t>Golang</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10237</v>
+        <v>58777</v>
       </c>
       <c r="E8" t="n">
-        <v>41.87815238165478</v>
+        <v>42.45</v>
       </c>
       <c r="F8" t="n">
-        <v>7.12649455099834</v>
+        <v>7.44</v>
       </c>
       <c r="G8" t="n">
-        <v>37.681709</v>
+        <v>37.46</v>
       </c>
       <c r="H8" t="n">
-        <v>40.272164</v>
+        <v>40.72</v>
       </c>
       <c r="I8" t="n">
-        <v>71.84534667999999</v>
+        <v>72.7</v>
       </c>
       <c r="J8" t="n">
-        <v>172.754813</v>
+        <v>179.21</v>
       </c>
     </row>
     <row r="9">
@@ -743,29 +743,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://europe-north1-benchmark-431108.cloudfunctions.net/hellonode-coldstart</t>
+          <t>Node.js</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10250</v>
+        <v>58772</v>
       </c>
       <c r="E9" t="n">
-        <v>42.77662937053659</v>
+        <v>43.28</v>
       </c>
       <c r="F9" t="n">
-        <v>21.2545994638512</v>
+        <v>19.59</v>
       </c>
       <c r="G9" t="n">
-        <v>37.408543</v>
+        <v>37.41</v>
       </c>
       <c r="H9" t="n">
-        <v>40.72715150000001</v>
+        <v>41.09</v>
       </c>
       <c r="I9" t="n">
-        <v>71.79793231000001</v>
+        <v>74.44</v>
       </c>
       <c r="J9" t="n">
-        <v>991.310613</v>
+        <v>3549.11</v>
       </c>
     </row>
     <row r="10">
@@ -779,29 +779,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://europe-north1-benchmark-431108.cloudfunctions.net/hellopython-coldstart</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10228</v>
+        <v>58746</v>
       </c>
       <c r="E10" t="n">
-        <v>42.53785681374658</v>
+        <v>43.11</v>
       </c>
       <c r="F10" t="n">
-        <v>6.1723779165541</v>
+        <v>7.48</v>
       </c>
       <c r="G10" t="n">
-        <v>38.692544</v>
+        <v>38.41</v>
       </c>
       <c r="H10" t="n">
-        <v>41.0262375</v>
+        <v>41.4</v>
       </c>
       <c r="I10" t="n">
-        <v>71.58562466000001</v>
+        <v>72.75</v>
       </c>
       <c r="J10" t="n">
-        <v>169.527144</v>
+        <v>334.4</v>
       </c>
     </row>
   </sheetData>
